--- a/book.xlsx
+++ b/book.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -39,40 +39,16 @@
     <t>可借数量</t>
   </si>
   <si>
-    <t>我是猫</t>
+    <t>罗生门</t>
   </si>
   <si>
-    <t>夏目漱石</t>
+    <t>芥川龙之介</t>
   </si>
   <si>
-    <t>中国华侨出版社</t>
+    <t>江苏凤凰文艺出版社</t>
   </si>
   <si>
-    <t>I-0003</t>
-  </si>
-  <si>
-    <t>解忧杂货店</t>
-  </si>
-  <si>
-    <t>东野圭吾</t>
-  </si>
-  <si>
-    <t>南海出版公司</t>
-  </si>
-  <si>
-    <t>I-0004</t>
-  </si>
-  <si>
-    <t>人间失格</t>
-  </si>
-  <si>
-    <t>太宰治</t>
-  </si>
-  <si>
-    <t>上海阅文出版社</t>
-  </si>
-  <si>
-    <t>I-0005</t>
+    <t>I-0006</t>
   </si>
 </sst>
 </file>
@@ -81,8 +57,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -95,6 +71,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -104,6 +87,82 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,61 +184,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,40 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +223,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -265,25 +247,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,13 +337,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,66 +397,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,54 +404,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,23 +435,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,16 +460,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +480,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -538,6 +505,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,15 +1016,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1092,50 +1069,10 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/book.xlsx
+++ b/book.xlsx
@@ -39,16 +39,16 @@
     <t>可借数量</t>
   </si>
   <si>
-    <t>罗生门</t>
+    <t>了不起的盖茨比</t>
   </si>
   <si>
-    <t>芥川龙之介</t>
+    <t>斯科特.菲茨杰拉德</t>
   </si>
   <si>
-    <t>江苏凤凰文艺出版社</t>
+    <t>南海出版公司</t>
   </si>
   <si>
-    <t>I-0006</t>
+    <t>I-0007</t>
   </si>
 </sst>
 </file>
@@ -56,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,6 +78,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -86,60 +108,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,55 +183,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +223,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,13 +331,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,157 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,41 +417,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,17 +435,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,23 +463,57 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,145 +522,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,13 +1019,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
